--- a/xlsx/indicadores_form_2.xlsx
+++ b/xlsx/indicadores_form_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\monitor_forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A213FD3-31B8-4886-AD96-17E41CA82755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D222D3B-145B-4C4D-8763-A61A657F05F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="326">
   <si>
     <t>type</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/madal/submission</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -3261,11 +3264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3289,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -8881,8 +8886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8920,7 +8925,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="17">
-        <v>202012091</v>
+        <v>202001201</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>324</v>
